--- a/欠款2017 终极版本2018.1.8.17.09.xlsx
+++ b/欠款2017 终极版本2018.1.8.17.09.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
   <si>
     <t>刘小琼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,14 @@
     <t>28w扣16w股本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/6/28   16万股本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -299,8 +307,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="163">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -525,6 +553,16 @@
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -596,6 +634,16 @@
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2385,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4234,10 +4282,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4292,7 +4340,7 @@
         <v>0.08</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F9" si="0">(D3-C3+1)*B3*E3/365</f>
+        <f t="shared" ref="F3:F10" si="0">(D3-C3+1)*B3*E3/365</f>
         <v>1385.6</v>
       </c>
       <c r="I3">
@@ -4433,29 +4481,44 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="B10">
+        <v>90174</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.08</v>
+      </c>
       <c r="F10" s="3">
-        <f>SUM(F3:F9)</f>
-        <v>77234.483287671232</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>7213.920000000001</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="I10" s="3">
-        <f>SUM(I3:I9)+F10</f>
-        <v>1125076.4832876711</v>
+        <f>B10</f>
+        <v>90174</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="3">
+        <f>SUM(F3:F10)</f>
+        <v>84448.40328767123</v>
+      </c>
       <c r="G11" s="3"/>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3">
+        <f>SUM(I3:I10)+F11</f>
+        <v>1222464.4032876713</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="C12" s="1"/>
@@ -4471,7 +4534,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4489,10 +4552,10 @@
         <v>30000</v>
       </c>
       <c r="C16" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D16" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E16" s="2">
         <v>0.08</v>
@@ -4504,16 +4567,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="G18" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4521,28 +4584,28 @@
         <v>250280</v>
       </c>
       <c r="C20" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D20" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E20" s="2">
         <v>0.08</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20:F27" si="1">(D20-C20+1)*B20*E20/365</f>
+        <f t="shared" ref="F20:F28" si="1">(D20-C20+1)*B20*E20/365</f>
         <v>20022.400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="B21">
         <v>40000</v>
       </c>
       <c r="C21" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D21" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E21" s="2">
         <v>0.08</v>
@@ -4552,15 +4615,15 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>300000</v>
       </c>
       <c r="C22" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D22" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E22" s="2">
         <v>0.08</v>
@@ -4570,15 +4633,15 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="B23">
         <v>40883</v>
       </c>
       <c r="C23" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D23" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E23" s="2">
         <v>0.08</v>
@@ -4588,15 +4651,15 @@
         <v>3270.6400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="B24">
         <v>20000</v>
       </c>
       <c r="C24" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D24" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E24" s="2">
         <v>0.08</v>
@@ -4606,15 +4669,15 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="B25">
         <v>20000</v>
       </c>
       <c r="C25" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D25" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E25" s="2">
         <v>0.08</v>
@@ -4624,15 +4687,15 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="B26">
         <v>55810</v>
       </c>
       <c r="C26" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D26" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E26" s="2">
         <v>0.08</v>
@@ -4644,15 +4707,15 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:10">
       <c r="B27">
         <v>58305</v>
       </c>
       <c r="C27" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D27" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E27" s="2">
         <v>0.08</v>
@@ -4664,88 +4727,61 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
-        <v>37</v>
+    <row r="28" spans="1:10">
+      <c r="B28">
+        <v>149242</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.08</v>
       </c>
       <c r="F28" s="3">
-        <f>H30</f>
-        <v>96420.695670000001</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="3">
-        <f>80000*0.08*K28/365+80000</f>
-        <v>82665.205479452052</v>
-      </c>
-      <c r="I28" s="1">
-        <v>42217</v>
-      </c>
-      <c r="J28" s="1">
-        <v>42369</v>
-      </c>
-      <c r="K28">
-        <f>J28-I28</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <f t="shared" si="1"/>
+        <v>11939.36</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="3">
         <f>SUM(F20:F28)</f>
-        <v>159242.93567000001</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="4">
-        <f>H28*1.08</f>
-        <v>89278.421917808228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>74761.600000000006</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="3">
+        <f>SUM(B20:B28)+F29</f>
+        <v>1009281.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="4">
-        <f>96420.69567</f>
-        <v>96420.695670000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3">
-        <f>F29-10000</f>
-        <v>149242.93567000001</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-      <c r="I31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="3">
-        <f>SUM(B20:B27)+F31</f>
-        <v>934520.93567000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
@@ -4893,45 +4929,33 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="3">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3">
         <f>SUM(F34:F40)</f>
         <v>6688.2268493150677</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="3">
-        <f>SUM(B34:B40)+F41</f>
+      <c r="I42" s="3">
+        <f>SUM(B34:B40)+F42</f>
         <v>128647.22684931506</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>269495</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F43" s="3">
-        <f>(D43-C43+1)*B43*E43/365</f>
-        <v>21559.599999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44">
-        <v>35000</v>
       </c>
       <c r="C44" s="1">
         <v>42736</v>
@@ -4944,12 +4968,12 @@
       </c>
       <c r="F44" s="3">
         <f>(D44-C44+1)*B44*E44/365</f>
-        <v>2800</v>
+        <v>21559.599999999999</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="B45">
-        <v>23139</v>
+        <v>35000</v>
       </c>
       <c r="C45" s="1">
         <v>42736</v>
@@ -4962,12 +4986,12 @@
       </c>
       <c r="F45" s="3">
         <f>(D45-C45+1)*B45*E45/365</f>
-        <v>1851.1200000000001</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="B46">
-        <v>20000</v>
+        <v>23139</v>
       </c>
       <c r="C46" s="1">
         <v>42736</v>
@@ -4980,45 +5004,45 @@
       </c>
       <c r="F46" s="3">
         <f>(D46-C46+1)*B46*E46/365</f>
+        <v>1851.1200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47">
+        <v>20000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F47" s="3">
+        <f>(D47-C47+1)*B47*E47/365</f>
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3">
-        <f>SUM(F43:F46)</f>
+    <row r="48" spans="1:9">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3">
+        <f>SUM(F44:F47)</f>
         <v>27810.719999999998</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>100000</v>
-      </c>
-      <c r="C50" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F50" s="3">
-        <f>(D50-C50+1)*B50*E50/365</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="B51">
-        <v>6969</v>
       </c>
       <c r="C51" s="1">
         <v>42736</v>
@@ -5031,12 +5055,12 @@
       </c>
       <c r="F51" s="3">
         <f>(D51-C51+1)*B51*E51/365</f>
-        <v>557.5200000000001</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="B52">
-        <v>8558</v>
+        <v>6969</v>
       </c>
       <c r="C52" s="1">
         <v>42736</v>
@@ -5049,12 +5073,12 @@
       </c>
       <c r="F52" s="3">
         <f>(D52-C52+1)*B52*E52/365</f>
-        <v>684.64</v>
+        <v>557.5200000000001</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="B53">
-        <v>9267.4809863013706</v>
+        <v>8558</v>
       </c>
       <c r="C53" s="1">
         <v>42736</v>
@@ -5067,54 +5091,54 @@
       </c>
       <c r="F53" s="3">
         <f>(D53-C53+1)*B53*E53/365</f>
+        <v>684.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54">
+        <v>9267.4809863013706</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D54" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F54" s="3">
+        <f>(D54-C54+1)*B54*E54/365</f>
         <v>741.39847890410954</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3">
-        <f>SUM(F50:F53)</f>
-        <v>9983.5584789041095</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="3">
-        <f>SUM(B50:B53)+F54</f>
-        <v>134778.03946520548</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
+      <c r="F55" s="3">
+        <f>SUM(F51:F54)</f>
+        <v>9983.5584789041095</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="3">
+        <f>SUM(B51:B54)+F55</f>
+        <v>134778.03946520548</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" t="s">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>70000</v>
-      </c>
-      <c r="C56" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D56" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F56" s="3">
-        <f>(D56-C56+1)*B56*E56/365</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57">
-        <v>60000</v>
       </c>
       <c r="C57" s="1">
         <v>42736</v>
@@ -5127,12 +5151,12 @@
       </c>
       <c r="F57" s="3">
         <f>(D57-C57+1)*B57*E57/365</f>
-        <v>4800</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="B58">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="C58" s="1">
         <v>42736</v>
@@ -5145,15 +5169,15 @@
       </c>
       <c r="F58" s="3">
         <f>(D58-C58+1)*B58*E58/365</f>
-        <v>3200</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="B59">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="C59" s="1">
-        <v>43062</v>
+        <v>42736</v>
       </c>
       <c r="D59" s="1">
         <v>43100</v>
@@ -5163,15 +5187,15 @@
       </c>
       <c r="F59" s="3">
         <f>(D59-C59+1)*B59*E59/365</f>
-        <v>427.39726027397262</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="B60">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="C60" s="1">
-        <v>42736</v>
+        <v>43062</v>
       </c>
       <c r="D60" s="1">
         <v>43100</v>
@@ -5181,67 +5205,50 @@
       </c>
       <c r="F60" s="3">
         <f>(D60-C60+1)*B60*E60/365</f>
+        <v>427.39726027397262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61">
+        <v>10000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D61" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F61" s="3">
+        <f>(D61-C61+1)*B61*E61/365</f>
         <v>800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3">
-        <f>SUM(F56:F60)</f>
-        <v>14827.397260273972</v>
-      </c>
-      <c r="G61" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
+      <c r="F62" s="3">
+        <f>SUM(F57:F61)</f>
+        <v>14827.397260273972</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>300000</v>
-      </c>
-      <c r="C63" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D63" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F63" s="3">
-        <f>(D63-C63+1)*B63*E63/365</f>
-        <v>24000</v>
-      </c>
-      <c r="H63" s="3">
-        <f>B63+B64+F65</f>
-        <v>337492.60200000001</v>
-      </c>
-      <c r="I63" s="1">
-        <v>43101</v>
-      </c>
-      <c r="J63" s="1">
-        <v>43157</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="L63">
-        <f>((J63-I63)+1)*K63/365*H63</f>
-        <v>4216.3459318356172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="B64">
-        <v>12493.15</v>
       </c>
       <c r="C64" s="1">
         <v>42736</v>
@@ -5254,49 +5261,66 @@
       </c>
       <c r="F64" s="3">
         <f>(D64-C64+1)*B64*E64/365</f>
+        <v>24000</v>
+      </c>
+      <c r="H64" s="3">
+        <f>B64+B65+F66</f>
+        <v>337492.60200000001</v>
+      </c>
+      <c r="I64" s="1">
+        <v>43101</v>
+      </c>
+      <c r="J64" s="1">
+        <v>43157</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L64">
+        <f>((J64-I64)+1)*K64/365*H64</f>
+        <v>4216.3459318356172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65">
+        <v>12493.15</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D65" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F65" s="3">
+        <f>(D65-C65+1)*B65*E65/365</f>
         <v>999.452</v>
       </c>
-      <c r="L64" s="3">
-        <f>H63+L63</f>
+      <c r="L65" s="3">
+        <f>H64+L64</f>
         <v>341708.9479318356</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3">
-        <f>SUM(F63:F64)</f>
+    <row r="66" spans="1:12">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3">
+        <f>SUM(F64:F65)</f>
         <v>24999.452000000001</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
         <v>26</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>100000</v>
-      </c>
-      <c r="C67" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D67" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E67" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F67" s="3">
-        <f>(D67-C67+1)*B67*E67/365</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="B68">
-        <v>5348</v>
       </c>
       <c r="C68" s="1">
         <v>42736</v>
@@ -5309,12 +5333,12 @@
       </c>
       <c r="F68" s="3">
         <f>(D68-C68+1)*B68*E68/365</f>
-        <v>427.84000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="B69">
-        <v>40000</v>
+        <v>5348</v>
       </c>
       <c r="C69" s="1">
         <v>42736</v>
@@ -5327,12 +5351,12 @@
       </c>
       <c r="F69" s="3">
         <f>(D69-C69+1)*B69*E69/365</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>427.84000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="B70">
-        <v>135000</v>
+        <v>40000</v>
       </c>
       <c r="C70" s="1">
         <v>42736</v>
@@ -5345,12 +5369,12 @@
       </c>
       <c r="F70" s="3">
         <f>(D70-C70+1)*B70*E70/365</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="B71">
-        <v>20343</v>
+        <v>135000</v>
       </c>
       <c r="C71" s="1">
         <v>42736</v>
@@ -5363,39 +5387,57 @@
       </c>
       <c r="F71" s="3">
         <f>(D71-C71+1)*B71*E71/365</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="B72">
+        <v>20343</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F72" s="3">
+        <f>(D72-C72+1)*B72*E72/365</f>
         <v>1627.4399999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="F72" s="3">
-        <f>SUM(F67:F71)</f>
+    <row r="73" spans="1:12">
+      <c r="F73" s="3">
+        <f>SUM(F68:F72)</f>
         <v>24055.279999999999</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
         <v>42</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>300000</v>
       </c>
-      <c r="C78" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D78" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E78" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F78" s="3">
-        <f>(D78-C78+1)*B78*E78/365</f>
+      <c r="C79" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D79" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F79" s="3">
+        <f>(D79-C79+1)*B79*E79/365</f>
         <v>24000</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G79" t="s">
         <v>43</v>
       </c>
     </row>

--- a/欠款2017 终极版本2018.1.8.17.09.xlsx
+++ b/欠款2017 终极版本2018.1.8.17.09.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28560" yWindow="-2920" windowWidth="27020" windowHeight="20000" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-29300" yWindow="-2920" windowWidth="27680" windowHeight="21060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="工作表2" sheetId="6" r:id="rId6"/>
     <sheet name="工作表3" sheetId="7" r:id="rId7"/>
     <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="资产" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="64">
   <si>
     <t>刘小琼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +238,50 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金牛股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行存款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,8 +352,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -480,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="187">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -563,6 +632,18 @@
     <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -644,6 +725,18 @@
     <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1661,7 +1754,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B51" sqref="B51:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2434,7 +2527,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4282,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4298,6 +4391,7 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4368,7 +4462,8 @@
         <v>9600</v>
       </c>
       <c r="I4">
-        <v>280000</v>
+        <f>B4</f>
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4517,7 +4612,7 @@
       </c>
       <c r="I11" s="3">
         <f>SUM(I3:I10)+F11</f>
-        <v>1222464.4032876713</v>
+        <v>1062464.4032876713</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4563,20 +4658,25 @@
       <c r="F16" s="3">
         <v>2400</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B16+F16</f>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:14">
       <c r="G18" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4597,7 +4697,7 @@
         <v>20022.400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:14">
       <c r="B21">
         <v>40000</v>
       </c>
@@ -4615,7 +4715,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:14">
       <c r="B22">
         <v>300000</v>
       </c>
@@ -4633,7 +4733,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:14">
       <c r="B23">
         <v>40883</v>
       </c>
@@ -4651,7 +4751,7 @@
         <v>3270.6400000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:14">
       <c r="B24">
         <v>20000</v>
       </c>
@@ -4669,7 +4769,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:14">
       <c r="B25">
         <v>20000</v>
       </c>
@@ -4687,7 +4787,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:14">
       <c r="B26">
         <v>55810</v>
       </c>
@@ -4707,7 +4807,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:14">
       <c r="B27">
         <v>58305</v>
       </c>
@@ -4727,7 +4827,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:14">
       <c r="B28">
         <v>149242</v>
       </c>
@@ -4749,7 +4849,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:14">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
@@ -4765,15 +4865,22 @@
         <f>SUM(B20:B28)+F29</f>
         <v>1009281.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="M29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="3">
+        <f>I11+I16+I29+I42+I49+H52+H66+H72</f>
+        <v>3284164.2832876709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:14">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
@@ -4781,7 +4888,7 @@
       <c r="H31" s="4"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:14">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
@@ -4800,10 +4907,10 @@
         <v>20000</v>
       </c>
       <c r="C34" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D34" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E34" s="2">
         <v>0.08</v>
@@ -4818,10 +4925,10 @@
         <v>30000</v>
       </c>
       <c r="C35" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D35" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E35" s="2">
         <v>0.08</v>
@@ -4836,10 +4943,10 @@
         <v>2877</v>
       </c>
       <c r="C36" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D36" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E36" s="2">
         <v>0.08</v>
@@ -4854,10 +4961,10 @@
         <v>4231</v>
       </c>
       <c r="C37" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D37" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E37" s="2">
         <v>0.08</v>
@@ -4873,16 +4980,16 @@
         <v>4851</v>
       </c>
       <c r="C38" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D38" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E38" s="2">
         <v>0.08</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F40" si="2">(D38-C38+1)*B38*E38/365</f>
+        <f t="shared" ref="F38:F41" si="2">(D38-C38+1)*B38*E38/365</f>
         <v>388.08000000000004</v>
       </c>
       <c r="G38" s="3"/>
@@ -4892,10 +4999,10 @@
         <v>20000</v>
       </c>
       <c r="C39" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D39" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E39" s="2">
         <v>0.08</v>
@@ -4911,24 +5018,37 @@
         <v>40000</v>
       </c>
       <c r="C40" s="1">
-        <v>43086</v>
+        <v>43101</v>
       </c>
       <c r="D40" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E40" s="2">
         <v>0.08</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>131.50684931506851</v>
+        <v>3200</v>
       </c>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="B41">
+        <v>6688</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D41" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>535.04</v>
+      </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:9">
@@ -4936,8 +5056,8 @@
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="3">
-        <f>SUM(F34:F40)</f>
-        <v>6688.2268493150677</v>
+        <f>SUM(F34:F41)</f>
+        <v>10291.759999999998</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>28</v>
@@ -4946,8 +5066,8 @@
         <v>17</v>
       </c>
       <c r="I42" s="3">
-        <f>SUM(B34:B40)+F42</f>
-        <v>128647.22684931506</v>
+        <f>SUM(B34:B41)+F42</f>
+        <v>138938.76</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4958,10 +5078,10 @@
         <v>269495</v>
       </c>
       <c r="C44" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D44" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E44" s="2">
         <v>0.08</v>
@@ -4976,10 +5096,10 @@
         <v>35000</v>
       </c>
       <c r="C45" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D45" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E45" s="2">
         <v>0.08</v>
@@ -4994,10 +5114,10 @@
         <v>23139</v>
       </c>
       <c r="C46" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D46" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E46" s="2">
         <v>0.08</v>
@@ -5012,10 +5132,10 @@
         <v>20000</v>
       </c>
       <c r="C47" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D47" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E47" s="2">
         <v>0.08</v>
@@ -5026,281 +5146,228 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="B48">
+        <v>27810</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.08</v>
+      </c>
       <c r="F48" s="3">
-        <f>SUM(F44:F47)</f>
-        <v>27810.719999999998</v>
-      </c>
-      <c r="G48" t="s">
+        <f>(D48-C48+1)*B48*E48/365</f>
+        <v>2224.8000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3">
+        <f>SUM(F44:F48)</f>
+        <v>30035.519999999997</v>
+      </c>
+      <c r="G49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
+      <c r="H49" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="3">
+        <f>F49+SUM(B44:B48)</f>
+        <v>405479.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>15</v>
       </c>
-      <c r="B51">
-        <v>100000</v>
-      </c>
-      <c r="C51" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D51" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F51" s="3">
-        <f>(D51-C51+1)*B51*E51/365</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
       <c r="B52">
-        <v>6969</v>
+        <v>130000</v>
       </c>
       <c r="C52" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D52" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E52" s="2">
         <v>0.08</v>
       </c>
       <c r="F52" s="3">
         <f>(D52-C52+1)*B52*E52/365</f>
-        <v>557.5200000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="B53">
-        <v>8558</v>
-      </c>
-      <c r="C53" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D53" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F53" s="3">
-        <f>(D53-C53+1)*B53*E53/365</f>
-        <v>684.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54">
-        <v>9267.4809863013706</v>
-      </c>
-      <c r="C54" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D54" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F54" s="3">
-        <f>(D54-C54+1)*B54*E54/365</f>
-        <v>741.39847890410954</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>10400</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="3">
+        <f>F52+B52</f>
+        <v>140400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="3">
-        <f>SUM(F51:F54)</f>
-        <v>9983.5584789041095</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="3">
-        <f>SUM(B51:B54)+F55</f>
-        <v>134778.03946520548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:9">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
+    <row r="57" spans="1:9">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>70000</v>
       </c>
-      <c r="C57" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D57" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F57" s="3">
-        <f>(D57-C57+1)*B57*E57/365</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="B58">
-        <v>60000</v>
-      </c>
-      <c r="C58" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D58" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F58" s="3">
-        <f>(D58-C58+1)*B58*E58/365</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="B59">
-        <v>40000</v>
-      </c>
       <c r="C59" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D59" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E59" s="2">
         <v>0.08</v>
       </c>
       <c r="F59" s="3">
         <f>(D59-C59+1)*B59*E59/365</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="C60" s="1">
-        <v>43062</v>
+        <v>43101</v>
       </c>
       <c r="D60" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E60" s="2">
         <v>0.08</v>
       </c>
       <c r="F60" s="3">
         <f>(D60-C60+1)*B60*E60/365</f>
-        <v>427.39726027397262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="C61" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D61" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E61" s="2">
         <v>0.08</v>
       </c>
       <c r="F61" s="3">
         <f>(D61-C61+1)*B61*E61/365</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62">
+        <v>50000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D62" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F62" s="3">
+        <f>(D62-C62+1)*B62*E62/365</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63">
+        <v>10000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43101</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43465</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F63" s="3">
+        <f>(D63-C63+1)*B63*E63/365</f>
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3">
-        <f>SUM(F57:F61)</f>
-        <v>14827.397260273972</v>
-      </c>
-      <c r="G62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
-        <v>24</v>
-      </c>
+    <row r="64" spans="1:9">
       <c r="B64">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="C64" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D64" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E64" s="2">
         <v>0.08</v>
       </c>
       <c r="F64" s="3">
         <f>(D64-C64+1)*B64*E64/365</f>
-        <v>24000</v>
-      </c>
-      <c r="H64" s="3">
-        <f>B64+B65+F66</f>
-        <v>337492.60200000001</v>
-      </c>
-      <c r="I64" s="1">
-        <v>43101</v>
-      </c>
-      <c r="J64" s="1">
-        <v>43157</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="L64">
-        <f>((J64-I64)+1)*K64/365*H64</f>
-        <v>4216.3459318356172</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="B65">
-        <v>12493.15</v>
+        <v>20000</v>
       </c>
       <c r="C65" s="1">
-        <v>42736</v>
+        <v>43347</v>
       </c>
       <c r="D65" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E65" s="2">
         <v>0.08</v>
       </c>
       <c r="F65" s="3">
         <f>(D65-C65+1)*B65*E65/365</f>
-        <v>999.452</v>
-      </c>
-      <c r="L65" s="3">
-        <f>H64+L64</f>
-        <v>341708.9479318356</v>
+        <v>521.64383561643831</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5308,138 +5375,94 @@
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="3">
-        <f>SUM(F64:F65)</f>
-        <v>24999.452000000001</v>
+        <f>SUM(F59:F64)</f>
+        <v>19200</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H66" s="3">
+        <f>F66+SUM(B59:B65)</f>
+        <v>279200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" t="s">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
         <v>26</v>
       </c>
-      <c r="B68">
-        <v>100000</v>
-      </c>
-      <c r="C68" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D68" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F68" s="3">
-        <f>(D68-C68+1)*B68*E68/365</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="B69">
-        <v>5348</v>
-      </c>
-      <c r="C69" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D69" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F69" s="3">
-        <f>(D69-C69+1)*B69*E69/365</f>
-        <v>427.84000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="B70">
-        <v>40000</v>
-      </c>
-      <c r="C70" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D70" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F70" s="3">
-        <f>(D70-C70+1)*B70*E70/365</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="B71">
-        <v>135000</v>
-      </c>
-      <c r="C71" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D71" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E71" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F71" s="3">
-        <f>(D71-C71+1)*B71*E71/365</f>
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
       <c r="B72">
-        <v>20343</v>
+        <v>200000</v>
       </c>
       <c r="C72" s="1">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="D72" s="1">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="E72" s="2">
         <v>0.08</v>
       </c>
       <c r="F72" s="3">
         <f>(D72-C72+1)*B72*E72/365</f>
-        <v>1627.4399999999998</v>
+        <v>16000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="3">
+        <f>B72+F72</f>
+        <v>216000</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="F73" s="3">
-        <f>SUM(F68:F72)</f>
-        <v>24055.279999999999</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79">
-        <v>300000</v>
-      </c>
-      <c r="C79" s="1">
-        <v>42736</v>
-      </c>
-      <c r="D79" s="1">
-        <v>43100</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="F79" s="3">
-        <f>(D79-C79+1)*B79*E79/365</f>
-        <v>24000</v>
-      </c>
-      <c r="G79" t="s">
-        <v>43</v>
-      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5451,4 +5474,114 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F12:R36"/>
+  <sheetViews>
+    <sheetView topLeftCell="E7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="12" spans="6:18">
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>1395053</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <v>800000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12">
+        <v>72000</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <v>20000</v>
+      </c>
+      <c r="R12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="6:18">
+      <c r="G13">
+        <v>135727</v>
+      </c>
+    </row>
+    <row r="14" spans="6:18">
+      <c r="G14">
+        <v>-600000</v>
+      </c>
+    </row>
+    <row r="15" spans="6:18">
+      <c r="G15">
+        <v>818170</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G12:G15)</f>
+        <v>1748950</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <f>G18+J12+M12+P12+S12+K36</f>
+        <v>3327350</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33">
+        <f>3700*12*6</f>
+        <v>266400</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <f>1100000-680000</f>
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <f>K33+K34</f>
+        <v>686400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>